--- a/biology/Médecine/Lucien_Jacquet/Lucien_Jacquet.xlsx
+++ b/biology/Médecine/Lucien_Jacquet/Lucien_Jacquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léonard Marie Lucien Jacquet (1860 à Sauviat -1914 à Royan) est un dermatologue français, connu pour être à l'origine de la découverte, avec le Dr Vidal du syndrome de Vidal et Jacquet, et pour ses recherches sur le prurit, la syphilis et la pelade[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léonard Marie Lucien Jacquet (1860 à Sauviat -1914 à Royan) est un dermatologue français, connu pour être à l'origine de la découverte, avec le Dr Vidal du syndrome de Vidal et Jacquet, et pour ses recherches sur le prurit, la syphilis et la pelade,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Sauviat en 1860, Lucien Jacquet est le fils de Jules Marie Auguste Jacquet et de Catherine Blanche Genebrias[3]. Il commence ses études de médecine à Limoges avant de devenir interne à Paris à l'hôpital Saint-Louis en 1883. Parmi ses professeurs on note Louis-Arthur Sevestre (1843-1907), Ernest Henri Besnier (1831-1909) et Georges Maurice Debove (1845-1920). Il obtient son doctorat en 1888, et devient médecin des hôpitaux en 1896. Il choisit la spécialité de dermatologue. En 1903, il commence sa carrière à l'hôpital Saint-Antoine où il deviendra chef de service[4],[5],[6]. Il aura notamment comme interne Albert Jean Antoine Sézary[7].
-Grâce à ses recherches sur le pelade, il mit un terme à la doctrine de la contagiosité de cette maladie et mit ainsi fin aux quarantaines pratiquées à l'époque. Il a également lutté contre l'alcoolisme[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Sauviat en 1860, Lucien Jacquet est le fils de Jules Marie Auguste Jacquet et de Catherine Blanche Genebrias. Il commence ses études de médecine à Limoges avant de devenir interne à Paris à l'hôpital Saint-Louis en 1883. Parmi ses professeurs on note Louis-Arthur Sevestre (1843-1907), Ernest Henri Besnier (1831-1909) et Georges Maurice Debove (1845-1920). Il obtient son doctorat en 1888, et devient médecin des hôpitaux en 1896. Il choisit la spécialité de dermatologue. En 1903, il commence sa carrière à l'hôpital Saint-Antoine où il deviendra chef de service. Il aura notamment comme interne Albert Jean Antoine Sézary.
+Grâce à ses recherches sur le pelade, il mit un terme à la doctrine de la contagiosité de cette maladie et mit ainsi fin aux quarantaines pratiquées à l'époque. Il a également lutté contre l'alcoolisme.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sa publication l'a plus renommé sera La Pratique Dermatologique, traité de dermatologie appliquée, publié en 4 volumes en 1900 et co-écrit par Jacquet, Balzer, Barthélémy, Ernest Besnier, Bodin, Brocq, De Brun, du Castel, Jean Darier, William Dubreuilh, J.-B. Laffitte, Emile Leredde, Maurice Raynaud, R. Sabouraud, Marcel Sée et Georges Thibierge. Elle sera considérée à l'étranger comme un monument de la dermatologie[2],[8]. Il participa aussi à la direction de l'Atlas iconographique des affections cutanées.[9]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sa publication l'a plus renommé sera La Pratique Dermatologique, traité de dermatologie appliquée, publié en 4 volumes en 1900 et co-écrit par Jacquet, Balzer, Barthélémy, Ernest Besnier, Bodin, Brocq, De Brun, du Castel, Jean Darier, William Dubreuilh, J.-B. Laffitte, Emile Leredde, Maurice Raynaud, R. Sabouraud, Marcel Sée et Georges Thibierge. Elle sera considérée à l'étranger comme un monument de la dermatologie,. Il participa aussi à la direction de l'Atlas iconographique des affections cutanées.
 Il publia également :
-Des érythèmes papuleux fessiers post-érosifs, par Lucien Jacquet, en 1886[10].
-Notes pour servir à l'histoire des névrodermites, Louis Brocq et Lucien Jacquet, en 1891[11].
-Lichen plan et hydrothérapie, par Lucien Jacquet, en 1892[12].
-Traitement de la syphilis, par Lucien Jacquet et Marcel Ferrand, 1907[13].</t>
+Des érythèmes papuleux fessiers post-érosifs, par Lucien Jacquet, en 1886.
+Notes pour servir à l'histoire des névrodermites, Louis Brocq et Lucien Jacquet, en 1891.
+Lichen plan et hydrothérapie, par Lucien Jacquet, en 1892.
+Traitement de la syphilis, par Lucien Jacquet et Marcel Ferrand, 1907.</t>
         </is>
       </c>
     </row>
